--- a/results/third_stage_results.xlsx
+++ b/results/third_stage_results.xlsx
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>"How can we ensure that advances in AI and ML algorithms, which power everything from smart homes to urban planning, are understandable, trustworthy, and controllable by the everyday user?"</t>
+          <t>"As intelligent systems become increasingly integrated into our daily lives, how can we ensure that their interfaces remain intelligible and user-friendly, addressing the issues of trust and control?"</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>"Can we make AI and ML universally controllable, reliable, and accessible?"</t>
+          <t>How can we design AI-integrated interfaces for everyday use, and what principles guide this process?</t>
         </is>
       </c>
     </row>
@@ -636,12 +636,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>"How can we design interfaces that empower users to understand and control algorithmic processes, fostering trust and effective interaction with machine-learning systems?"</t>
+          <t>"How can we create interfaces that empower users to understand and control algorithmic processes, ensuring autonomous systems are explainable and transparent by design?"</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>How can design strategies help users trust and understand ML algorithms?</t>
+          <t>"How might we design transparent, user-controlled algorithmic interfaces for effective decision-making?"</t>
         </is>
       </c>
     </row>
@@ -737,20 +737,18 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>"Explainable AI: Unlocking the Black Box of Machine Intelligence" 
-The field of explainable artificial intelligence (XAI) is a rapidly evolving domain, with a growing need to understand and interpret the complex algorithms that power today's intelligent systems. In this era of deep learning and AI, how can we ensure algorithmic accountability, interpretability, and context-awareness? 
-Our extensive literature review reveals the trends, connections, and gaps in the diverse world of XAI research, spanning from algorithmic transparency to cognitive psychology. With contributions from DARPA and a host of workshops, the community is buzzing with activity, but are we truly making progress towards human-centred machine learning? 
-Join us as we delve into the latest advancements, explore the challenges of interpretability, and discuss the future directions of this exciting field, putting people at the heart of the machine intelligence revolution. 
-It's time to lift the lid on the black box and discover the insights within.</t>
+          <t>Here is a potential question that could be addressed by the given context: 
+"What are the key trends and developments in the field of explainable systems, and how can we ensure that these advancements are understandable and usable by everyday people?" 
+The context provided discusses the growing interest in explainable artificial intelligence (XAI) and the various initiatives and workshops that have emerged as a result. It also highlights the need to make algorithmic and mathematical explanations more accessible and interpretable to general users, which is essential for broader understanding and trust in these systems.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>"How can XAI strategies be applied to create human-centric ML?"</t>
+          <t>What steps could make XAI tools more user-friendly and accessible to the public?</t>
         </is>
       </c>
     </row>
@@ -825,14 +823,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>"How can we improve the transparency and intelligibility of complex systems for users, especially with the rise of algorithmic decision-making and autonomous technologies? 
-The late 90s and early 2000s saw a shift towards context-aware computing, but it also brought to light the need for users to understand the decisions made by these systems. This has fueled important research in intelligibility and scrutability, with tailored interfaces and explanations aiming to bridge the gap between complex algorithms and user understanding. 
-As we continue to integrate advanced technologies into our daily lives, how can we ensure that users are informed and in control of the systems they interact with?"</t>
+          <t>"How can we bridge the gap between explainable systems in AI/ML communities and HCI to enhance user understanding and trust in technology?"</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>What methods can be used to clarify algorithmic choices and maintain transparency?</t>
+          <t>"How might integrating AI and HCI improve user trust and experience?"</t>
         </is>
       </c>
     </row>
@@ -927,17 +923,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sure! Here is a potential statement that could be addressed by the provided context: 
-"How can we utilize topic modeling and citation network analysis to uncover trends and connections within the vast landscape of explainable systems research?"</t>
+          <t>"How can we effectively navigate the vast landscape of research and identify emerging trends in HCI and explainable systems?"</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>"What methods combine topic modeling and citation analysis for trend and relationship discovery in explainable AI literature research?"</t>
+          <t>"What proactive strategies can we employ to effectively anticipate and address emerging HCI trends and their potential impacts?"</t>
         </is>
       </c>
     </row>
@@ -1015,13 +1010,13 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>"Unraveling the Evolution of Interpretable Machine Intelligence: A Comprehensive Review" 
-This proposed title encapsulates the context provided, which discusses the evolution of different research communities and their interrelations within the field of machine intelligence, with a specific focus on interpretability. The title hints at a comprehensive exploration of the historical development, including early artificial intelligence, expert systems, and the more recent surge of interest in interpretable ML. The use of "unraveling" suggests a process of revealing and understanding the complex interactions and influences within this dynamic research landscape.</t>
+          <t>"Unveiling the Evolution of Artificial Intelligence: A Journey from Expert Systems to Interpretable ML" 
+This copy statement emphasizes the journey of AI research, showcasing how the field has evolved from early expert systems to the current focus on interpretable machine learning. By visualizing the citation network, we uncover distinct research communities and their interconnections, providing a comprehensive overview of the AI landscape. With 28 significant clusters and 9 research communities, we explore the progress and influences that shape the field of artificial intelligence. The statement also hints at the gap between Rule Extraction research and other AI paradigms, offering an intriguing avenue for further exploration.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>"How could a different title change the tone and public appeal?"</t>
+          <t>Trace the evolution of AI from Expert Systems to modern ML, mapping gaps and future paths.</t>
         </is>
       </c>
     </row>
@@ -1085,12 +1080,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>"How can we design intelligent systems that build user trust, especially with the growing complexity of machine learning models and the diverse user base?"</t>
+          <t>"How can we design intelligent systems and agents that provide understandable and trustworthy explanations to non-technical users, thereby gaining their confidence in decision-making and task management?"</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>"What strategies can be employed to build and maintain user confidence in intelligent systems, including their ML capabilities?"</t>
+          <t>"How can we create transparent AI, explaining its decisions and building user trust?"</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1187,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>"How can we ensure that the rapid advancements in ubiquitous computing and complex systems foster meaningful human-machine interactions, especially in the context of increasingly intelligent ambient technologies?"</t>
+          <t>"How can we make sense of the increasing complexity of ubiquitous computing and design more intuitive and understandable interactions?"</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>"How might we ensure positive, meaningful interactions with ambient tech and ubiquitous computing?"</t>
+          <t>"With complex products, how might we design interactions that remain simple and effective?"</t>
         </is>
       </c>
     </row>
@@ -1266,16 +1261,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>"How can we ensure that complex algorithms, like those used in Deep Learning and neural networks, are fair, accountable, and transparent, especially when they are used to make important decisions that impact people's lives?"</t>
+          <t>"As neural networks and deep learning continue to evolve, how can we ensure that these models are not only accurate but also interpretable, fair, and accountable? The demand for responsible AI has never been more urgent."</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>"How can we ensure fairness and transparency in these algorithms and what steps are needed?"</t>
+          <t>"Identify the key ethical principles for responsible AI and outline a step-by-step process for their practical implementation."</t>
         </is>
       </c>
     </row>
@@ -1375,16 +1370,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>"How can we ensure that algorithms are held accountable, especially given the concerns surrounding big data privacy and the increasing automation of news media?"</t>
+          <t>How can we ensure that the increasing automation of news media and the use of algorithmic curation and writing do not compromise journalistic integrity and transparency?</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>What steps guarantee accountability in algorithms and mitigate data/media automation risks?</t>
+          <t>Might journalistic integrity be at risk with automation if ethical guidelines lag?</t>
         </is>
       </c>
     </row>
@@ -1450,16 +1445,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>"Understanding the Evolution of Research Topics: A Comprehensive Analysis of CHI 2018 Papers and Their Impact on Interpretable Machine Learning."</t>
+          <t>"How does topic modeling in citing abstracts and paragraphs contribute to understanding intelligent and ambient systems within the vast landscape of machine learning research?"</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>How might CHI research shape interpretable ML's future, and what are the potential impacts?</t>
+          <t>How does topic modeling enhance our comprehension of intelligent systems, especially regarding ML integration?</t>
         </is>
       </c>
     </row>
@@ -1502,16 +1497,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>"Unveiling the Latest Trends in CHI 2018: From Intelligent Interfaces to Interpretable ML."</t>
+          <t>"Unveiling the CHI 2018 Paper's Insights: A Journey through Interaction Design, Machine Intelligence, and the Human Psyche."</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>If you attended CHI 2018, what topics do you think would be covered?</t>
+          <t>What was the central theme of the CHI conference paper in 2018?</t>
         </is>
       </c>
     </row>
@@ -1609,16 +1604,17 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>"How do the various sources of text—core abstracts, citing abstracts, and citing paragraphs—contribute to understanding the relationship between topics in the field of intelligent and ambient systems research?"</t>
+          <t>Here is a statement that could be used in marketing or promotional material for a technology company: 
+"With our innovative LDA models and topic network analysis, we unlock the secrets of your text data. By visualizing complex relationships and uncovering dominant patterns, we provide profound insights that drive your business forward. It's time to discover the power of your data with our cutting-edge text analysis solutions."</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>What do these sources reveal about relationships within this field?</t>
+          <t>How can a tech company best promote its LDA models and text analytics tools?</t>
         </is>
       </c>
     </row>
@@ -1691,14 +1687,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Here is a potential copywriting string based on the given context: 
-"How can we ensure ethical and transparent machine learning practices, especially in critical domains like medicine and finance, to address issues of bias, discrimination, and privacy?" 
-This question addresses the key issues and applications mentioned in the context, highlighting the importance of interpretability, algorithmic fairness, and the impact of ML in sensitive fields. It invites a discussion on the methods and theories mentioned, such as Bayesian rules, causal inference, and the exploration of counterfactual reasoning, to create more accountable and understandable ML systems.</t>
+          <t>"How can we ensure that Machine Learning (ML) systems are ethical and accountable, especially in critical domains such as medicine and finance?"</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>How might ethical, transparent ML improve patient care and protect finances?</t>
+          <t>"How can we ensure ethical ML deployment in finance and medicine?"</t>
         </is>
       </c>
     </row>
@@ -1798,18 +1792,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Here is a potential statement that could be addressed by the given context: 
-"The evolution of HCI research has shed light on the emerging trends and gaps in the field, particularly regarding explainable systems. By analyzing citation and topic networks, we uncover insights that shape the future trajectory of HCI, highlighting the shift from production rules to machine learning and the growing focus on systematic accountability. How can we bridge the gap between interaction design and algorithmic fairness to create more understandable and socially impactful interfaces?"
-This statement addresses the context provided and invites further discussion on the trends, challenges, and opportunities within the field of HCI, specifically in the realm of explainable systems and the interplay between interaction design and algorithmic fairness.</t>
+          <t>"Unveiling the Trends: From Production Rules to Machine Learning Evolution"
+The evolution of explainable systems in HCI has unveiled intriguing trends. One such trend is the shift from production rules to the realm of machine learning. While older methods of explaining machine learning models were closely tied to expert systems and Bayesian networks, the new cluster on Interpretable ML seems to be charting its own course. This raises questions and presents opportunities: Are the new approaches completely dissociated from the past, or is there room for integration? Have we fully leveraged the insights from rule extraction, an ancient yet evolving field, in our quest for interpretable ML and FAT? 
+This trend underscores the importance of reflecting on past research and revisiting methods that could offer fresh perspectives and solutions for current challenges. By delving into the history of our field, we may uncover hidden gems that can inform our present and future endeavors. 
+The provided context offers a fascinating insight into the world of HCI and its intersection with explainable systems, machine learning, and fairness. It presents an opportunity to explore the trends, trajectories, and potential gaps in our understanding, ultimately informing future research directions.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>How can we ensure a positive user experience while also maintaining ethical AI standards in next-gen interfaces?</t>
+          <t>"How can revisiting rule extraction enhance our ML models, and what potential benefits might we uncover?"</t>
         </is>
       </c>
     </row>
@@ -1876,16 +1871,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>"How can we ensure that advancements in Explainable AI and Interpretable Machine Learning are socially accountable and trustworthy? As we strive for rigorous and usable intelligibility, it's essential to consider the human factor and real-world applicability. By drawing insights from social sciences and cognitive psychology, how can HCI research bridge the gap between complex models and user-friendly explanations to build institutional trust?"</t>
+          <t>"How can we ensure that Explainable AI aligns with societal accountability and addresses the shift towards institutional trust? Are current mathematical models sufficient, or do we need to incorporate insights from social sciences to make XAI more usable and practical for real-world applications?"</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>"How can Explainable AI and Interpretable ML build institutional trust?"</t>
+          <t>"Explain XAI's role in building trust and ensuring social accountability."</t>
         </is>
       </c>
     </row>
@@ -1986,16 +1981,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>"How can we create dynamic and interactive explanation interfaces that are tailored to different user groups and effectively communicate complex algorithmic decisions?"</t>
+          <t>"How can we create dynamic and interactive explanations for complex algorithmic decision-making processes, ensuring a broad audience can understand and explore these systems?"</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>"Designing adaptable interfaces with clear guidance could potentially enhance user experiences and satisfaction."</t>
+          <t>If we simplified complex algorithms, would the public engage more with the explanation?</t>
         </is>
       </c>
     </row>
@@ -2063,12 +2058,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>"How can we ensure that advances in machine learning and artificial intelligence are designed with intelligibility and usability in mind, benefiting society at large?"</t>
+          <t>"How can we ensure that advancements in machine learning and artificial intelligence are designed with intelligibility and transparency at their core, benefiting society as a whole?"</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>"Discuss ways to ensure equitable distribution of AI and ML's perks."</t>
+          <t>"What strategies can ensure AI ethics and ML's societal benefits are fully realized?"</t>
         </is>
       </c>
     </row>
@@ -2162,12 +2157,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>"How can we ensure that the rapidly evolving fields of AI, machine learning, and human-computer interaction are developed in a way that is ethical, transparent, and fair, especially in the context of smart energy systems and personal data?"</t>
+          <t>"How can we ensure that advancements in AI and complex cognition are not only effective but also ethical and transparent, benefiting society as a whole?"</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>"What practices and steps ensure ethical AI development for personal data and energy apps?"</t>
+          <t>"Outline the process to ensure AI is ethical, transparent, and beneficial."</t>
         </is>
       </c>
     </row>
@@ -2245,12 +2240,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>"How do machine learning and network analysis techniques aid in understanding complex systems, from healthcare to energy demand?"</t>
+          <t>"How does combining rich user interaction and machine learning help make sense of large network data?"</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>How do we use network analysis and machine learning to understand complex systems?</t>
+          <t>How can combining interactive UI with ML improve data analysis for large networks? Explain with examples.</t>
         </is>
       </c>
     </row>
@@ -2342,12 +2337,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>"How might we better understand and design for user interaction with smart devices and systems in ambient spaces, considering issues of transparency, trust, and proactive behaviour?"</t>
+          <t>"How can we improve user experience and trust in interactive data exploration and visual analytics?"</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>How could we best enhance user experiences with smart technology?</t>
+          <t>How can data visualization enhance user experience and build trust? Elaborate the key strategies.</t>
         </is>
       </c>
     </row>
@@ -2421,17 +2416,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>"How do we ensure algorithmic transparency and intelligibility while maintaining the integrity of complex learning systems?" 
-This question addresses the context provided, particularly regarding the works of Datta et al., Dey and Newberger, and Diakopoulos, which touch on themes of algorithmic transparency, context-aware intelligibility, and accountability in algorithmic decision-making. It invites discussion on the challenges and approaches to achieving transparency without compromising the effectiveness and complexity of the algorithms and systems involved.</t>
+          <t>"As technology advances, how can we ensure algorithmic transparency and hold AI systems accountable for their actions? Explore the evolving field of explainable AI and its potential impact on society."</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>"How can we balance transparency and simplicity in algorithms without compromising integrity?"</t>
+          <t>How can we ensure accountability and transparency as AI continues to advance?</t>
         </is>
       </c>
     </row>
@@ -2522,16 +2516,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>"How can we design technology that is both functional and aesthetically pleasing, while also ensuring user privacy and trust?"</t>
+          <t>"How can we effectively balance the aesthetics of design with meaningful action in the era of ubiquitous computing?"</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Could we develop technology that ensures user privacy and remains aesthetically pleasing and functional?</t>
+          <t>"Can we make tech functions as appealing as aesthetics in product design?"</t>
         </is>
       </c>
     </row>
@@ -2604,16 +2598,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>"How have advancements in capacitive sensing technology influenced human-computer interaction, and what design considerations are essential for creating intuitive and accessible user experiences?"</t>
+          <t>"As we navigate an increasingly AI-driven world, how can we ensure that algorithmic decision-making remains transparent and accountable, upholding the 'right to explanation' for all?"</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>How has capacitive sensing influenced HCI, and what are the essential design factors for a seamless UX?</t>
+          <t>"What steps can ensure everyone understands AI decisions and their rights?"</t>
         </is>
       </c>
     </row>
@@ -2705,16 +2699,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>"How can we ensure that the design of implicit interactions makes interactive systems more user-friendly and less intrusive?"</t>
+          <t>"How can we ensure that algorithmic bias does not lead to discrimination in data-driven decision-making processes?"</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>"Can implicit interaction design enhance user-friendliness while reducing system intrusiveness?"</t>
+          <t>"Could algorithmic bias result in widespread discrimination if left unchecked?"</t>
         </is>
       </c>
     </row>
@@ -2790,12 +2784,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>"How can we design intuitive and user-friendly interfaces for predictive mobile systems that effectively communicate uncertainty to users, drawing on insights from human-machine collaboration and case-based reasoning research?"</t>
+          <t>"Uncertainty visualization is an essential aspect of mobile predictive systems, as demonstrated by M. et al. How can we design intuitive interfaces that effectively communicate uncertainty to users and enhance their understanding of predictive information?"</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>"What methods can predictive mobile apps use to convey uncertainty to users?"</t>
+          <t>How can uncertainty be best communicated to mobile users through UI design?</t>
         </is>
       </c>
     </row>
@@ -2890,12 +2884,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>"How do Krause et al., Kulesza et al., and Lee et al. propose to improve human-computer interactions and understanding of machine learning models?"</t>
+          <t>"How can we make machine learning models more interpretable and accessible to non-experts?" 
+This question is addressed in multiple sources, with various approaches suggested to improve the transparency and usability of complex machine learning models. By making these models more understandable, users can have greater trust and confidence in their predictions, leading to wider adoption and successful integration into various fields and applications. 
+For example, Krause et al. (2016) propose methods for users to interact with and visually inspect black-box machine learning models, while Lakkaraju et al. (2016) introduce a framework for creating interpretable decision sets. These contributions, and others in this list of sources, aim to bridge the gap between powerful machine learning tools and human understanding, ensuring these technologies are explainable and beneficial to a broader audience.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>"How can K, K, and L enhance human-AI collaboration and ML clarity?"</t>
+          <t>If we educate non-ML experts, will they embrace the technology faster?</t>
         </is>
       </c>
     </row>
@@ -2968,18 +2964,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Please consider the following statement:
-"The field of human-computer interaction is evolving with an increased focus on explainable AI and intelligible system design. How can researchers build on the work of Lim et al. to enhance user understanding and trust in context-aware applications?"
-This statement addresses the context provided, which seems to be a list of academic papers focusing on intelligibility and context-aware applications. By framing the statement as a question, it invites further discussion and exploration of the topic, encouraging the development of practical solutions to enhance the user experience in this evolving field.</t>
+          <t>"Lim et al.'s extensive research on intelligibility in context-aware applications has paved the way for the development of explainable smart systems, enhancing user understanding and trust in HCI."</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>"How might Lim et al. build better user understanding and trust?"</t>
+          <t>"How might Lim et al.'s research shape the future of explainable AI?"</t>
         </is>
       </c>
     </row>
@@ -3075,14 +3069,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Here's a potential question that could be derived from the provided context: 
-"How have Ubicomp and the field of pervasive and ubiquitous computing evolved over the last 15 years, and what key paradigms and developments have shaped its progress?" 
-This question specifically targets context number 120, and it invites a discussion about the historical development, current state, and potential future directions of Ubicomp and related fields. It can spark conversations about technological advancements, research trends, and how the field has adapted to changing user needs and technological capabilities over time.</t>
+          <t>"How have Liu et al.'s contributions to the field of ubiquitous computing and human-computer interaction influenced the development of smart homes and gesture recognition technology?"</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>"Could Ubicomp's future mean its presence becomes an invisible part of our daily routines?"</t>
+          <t>Could Liu et al.'s research lead to more accurate and widespread gesture control in smart homes?</t>
         </is>
       </c>
     </row>
@@ -3156,12 +3148,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>"How can we leverage machine learning to enhance user interfaces and improve the user experience?"</t>
+          <t>"Unleash the power of machine learning with Gestalt: a revolutionary tool that provides integrated support for implementation and analysis, empowering users to master their data."</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>"Describe how machine learning could enhance user interfaces and the key resulting benefits."</t>
+          <t>Sure! I would be happy to assist you with that. Here is the rewritten input: 
+"What unique advantages and potential applications might a fully realized Gestalt offer users?"
+This rewritten input maintains the essence of your original query while emphasizing the multi-step reasoning aspect and the potential complexity of a mature Gestalt system.</t>
         </is>
       </c>
     </row>
@@ -3255,12 +3249,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>"How can we leverage emerging technologies to create geometrically-aware and self-configuring interfaces that build trust and ensure user privacy?"</t>
+          <t>"How can we leverage the latest advancements in AI and data visualization to create more intuitive and trustworthy user interfaces for complex systems, ensuring better human-machine interaction and understanding?"</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>What challenges do self-configuring interfaces face in ensuring user privacy and trust?</t>
+          <t>How can AI data visualization improve user understanding and trust?</t>
         </is>
       </c>
     </row>
@@ -3338,12 +3332,14 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>"Exploring the Evolving Landscape of Human-Computer Interaction: From Expert Systems to the Sharing Economy."</t>
+          <t>Here is a potential question that could be addressed by the given context: 
+"How have perspectives on expert systems and explainable AI evolved since the 1980s, and what are the key challenges and advancements in the field today, as outlined in the provided references?" 
+This question touches on multiple references provided in the context, such as the early work on explanation in expert systems (reference 155 and 165), the evolution of perspectives on case-based reasoning and explanation (reference 159), and more recent discussions on the challenges and importance of explainable machine learning (references 160 and 162). It invites a discussion that traces the historical development of ideas and highlights ongoing research efforts in human-computer interaction and artificial intelligence.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>What is the central message and main benefit of a plant-based diet?</t>
+          <t>"What challenges and historical views might we see if Explainable AI was widely adopted?"</t>
         </is>
       </c>
     </row>
@@ -3433,18 +3429,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Here is a potential question that could be addressed by the given context: 
-"How have experts in the field of human-computer interaction, such as Tullio, Dey, Chalecki, and Fogarty, contributed to our understanding of user behavior and system design, especially in regard to non-technical users and intelligent systems?"
-This question relates to context 169, which describes a field study conducted by the authors to understand how non-technical users interact with intelligent systems. It invites a discussion on the insights gained from the study and how they might inform design practices to improve user experiences.</t>
+          <t>"How can we bridge the gap between technical and non-technical users when interacting with intelligent systems, and what design frameworks can enhance the user experience?"</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>What specific design enhancements are suggested by Tullio and colleagues?</t>
+          <t>If we add more intuitive features, could our app cater to a wider range of users?</t>
         </is>
       </c>
     </row>
@@ -3498,16 +3492,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>"Discover the latest advancements in intelligent systems for the home, with insights from the Learning Thermostat, to managing adaptive versatile environments. Explore how to reduce gender bias in shopping and learn about rule extraction from deep neural networks. All this and more in the upcoming CHI 2018 conference proceedings."</t>
+          <t>"The field of intelligent systems and adaptive environments is rapidly evolving, with an emphasis on creating intuitive and versatile technologies that enhance our daily lives. From learning thermostats to gender-bias reduction in shopping algorithms, the papers presented in this conference offer a glimpse into the future of human-computer interaction and the potential for a more efficient and inclusive world."</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>If CHI 2018 covers home systems and gender bias, might it also address other social issues?</t>
+          <t>If these papers focus on machine-learning advancements, what do they seek to achieve?</t>
         </is>
       </c>
     </row>
